--- a/understanding_test_flow_from_start_to_finish/07_テストケース(問い合わせフォームページ_ヘッダー・フッター).xlsx
+++ b/understanding_test_flow_from_start_to_finish/07_テストケース(問い合わせフォームページ_ヘッダー・フッター).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/課題用ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hikaru.hattori/Documents/小町さんの手伝い案件/小町さんにお渡しするもの_20240808/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7B3E1-C479-D545-A9EB-989C7D7697A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D32F14-B0C9-4A41-AD26-F47E65C2B387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="500" windowWidth="32980" windowHeight="21100" xr2:uid="{C3B9D55D-02D8-6544-B56C-792F669A26A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{C3B9D55D-02D8-6544-B56C-792F669A26A3}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース (問い合わせフォームページ)" sheetId="2" r:id="rId1"/>
@@ -147,17 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. トップページを表示する
-2. 画面を上下にスクロールする</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ガメン </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ジョウゲ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面スクロールさせてもヘッダーは常時画面の最上部に固定表示されていること</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ガメン </t>
@@ -356,7 +345,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. トップページを表示する
+    <t>C-3-1-2</t>
+  </si>
+  <si>
+    <t>テストケース（問い合わせフォームページ（ヘッダー・フッターのみ））</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガメン </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">トイアワセ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 問い合わせフォームページを表示する
+2. 画面を上下にスクロールする</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガメン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジョウゲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 問い合わせフォームページを表示する
 2. C-3-1-1にマウスポインタを当てる</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ガメン </t>
@@ -370,7 +386,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. トップページを表示する
+    <t>1. 問い合わせフォームページを表示する
 2. C-3-1-2にマウスポインタを当てる</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ガメン </t>
@@ -380,22 +396,6 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t xml:space="preserve">アテル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C-3-1-2</t>
-  </si>
-  <si>
-    <t>テストケース（問い合わせフォームページ（ヘッダー・フッターのみ））</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ガメン </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">キノウ </t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t xml:space="preserve">トイアワセ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -977,7 +977,7 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21">
@@ -1024,16 +1024,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -1052,10 +1052,10 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -1074,13 +1074,13 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="11"/>
@@ -1096,13 +1096,13 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="11"/>
@@ -1117,13 +1117,13 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="3"/>
@@ -1140,7 +1140,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -1158,7 +1158,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="16"/>
@@ -1176,7 +1176,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="16"/>
@@ -1195,13 +1195,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="3"/>
@@ -1265,7 +1265,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="16"/>
@@ -1333,16 +1333,16 @@
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="11"/>
@@ -1358,13 +1358,13 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="11"/>
@@ -1380,13 +1380,13 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="11"/>
@@ -1433,12 +1433,12 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="22"/>
       <c r="G26" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
